--- a/Lexis-GLOBAL/Coredata/ENTITIES.xlsx
+++ b/Lexis-GLOBAL/Coredata/ENTITIES.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adapp\git\AutoAPI\Lexis-GLOBAL\Coredata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E73F0A-DA77-45F8-9C22-6F7746FE60E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6092E8AD-2348-4621-83A1-A98AA271211E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities_Create" sheetId="1" r:id="rId1"/>
+    <sheet name="Entities_Delete" sheetId="2" r:id="rId2"/>
+    <sheet name="Entities_Update" sheetId="3" r:id="rId3"/>
+    <sheet name="Entities_View(ID)" sheetId="4" r:id="rId4"/>
+    <sheet name="Entities_View" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="39">
   <si>
     <t>S.No</t>
   </si>
@@ -133,6 +137,15 @@
   </si>
   <si>
     <t>api/v1/Entity</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>DELETE</t>
   </si>
 </sst>
 </file>
@@ -504,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -651,4 +664,612 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F04831F-3D8D-4230-A81B-0163E5876131}">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" customWidth="1"/>
+    <col min="6" max="6" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="9" max="9" width="16.26953125" customWidth="1"/>
+    <col min="10" max="10" width="20.08984375" customWidth="1"/>
+    <col min="11" max="11" width="17.36328125" customWidth="1"/>
+    <col min="12" max="12" width="15.1796875" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" customWidth="1"/>
+    <col min="17" max="17" width="20.81640625" customWidth="1"/>
+    <col min="18" max="18" width="20.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B605BB9D-7B53-4F3D-81F4-540DC1E89321}">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" customWidth="1"/>
+    <col min="6" max="6" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="9" max="9" width="16.26953125" customWidth="1"/>
+    <col min="10" max="10" width="20.08984375" customWidth="1"/>
+    <col min="11" max="11" width="17.36328125" customWidth="1"/>
+    <col min="12" max="12" width="15.1796875" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" customWidth="1"/>
+    <col min="17" max="17" width="20.81640625" customWidth="1"/>
+    <col min="18" max="18" width="20.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06FDA312-93E0-4B61-A7E7-8A866C3103C7}">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" customWidth="1"/>
+    <col min="6" max="6" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="9" max="9" width="16.26953125" customWidth="1"/>
+    <col min="10" max="10" width="20.08984375" customWidth="1"/>
+    <col min="11" max="11" width="17.36328125" customWidth="1"/>
+    <col min="12" max="12" width="15.1796875" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" customWidth="1"/>
+    <col min="17" max="17" width="20.81640625" customWidth="1"/>
+    <col min="18" max="18" width="20.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2C8E3E-5587-4E05-9798-A4B32D14D0D6}">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" customWidth="1"/>
+    <col min="6" max="6" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="9" max="9" width="16.26953125" customWidth="1"/>
+    <col min="10" max="10" width="20.08984375" customWidth="1"/>
+    <col min="11" max="11" width="17.36328125" customWidth="1"/>
+    <col min="12" max="12" width="15.1796875" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" customWidth="1"/>
+    <col min="17" max="17" width="20.81640625" customWidth="1"/>
+    <col min="18" max="18" width="20.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>